--- a/Datos_2020_2021/pesos iniciales anchoveta_julio2021.xlsx
+++ b/Datos_2020_2021/pesos iniciales anchoveta_julio2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MJZ\CTP2020\ANCHOVETA\DatosJulio2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariajosezunigabasualto/MJZ/CTP2021/ANCHOVETA/INFORME_FINAL/Datos_2020_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B36949-B062-4E1D-8501-74792E1881CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D07954-9433-CA4B-AE05-D0B9F0BB5062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24340" windowHeight="21340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="calendario" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,26 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
     <sheet name="Hoja4" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="50">
   <si>
     <t>Pesos medios</t>
   </si>
@@ -176,6 +185,9 @@
   </si>
   <si>
     <t>promedio 5 años</t>
+  </si>
+  <si>
+    <t>2020/21</t>
   </si>
 </sst>
 </file>
@@ -361,7 +373,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1175,7 +1187,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1986,6 +1998,370 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2692038495188102E-2"/>
+          <c:y val="2.5428331875182269E-2"/>
+          <c:w val="0.89019685039370078"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>biologico!$I$10:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>61.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.220000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.94</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.279999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.44</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31.26</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32.980000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32.519999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.419999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-61F8-EC46-B348-DFF3C3A5E3D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2092170863"/>
+        <c:axId val="2092172511"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2092170863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2092172511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2092172511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2092170863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2027,6 +2403,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3098,6 +3514,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -3513,6 +4445,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>85643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161192</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>93459</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F59A24CE-86F3-2543-9506-641A8B229982}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3785,15 +4753,15 @@
       <selection activeCell="O41" sqref="O41:T41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" customWidth="1"/>
     <col min="11" max="13" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
       <c r="P7" s="1" t="s">
         <v>2</v>
       </c>
@@ -3802,7 +4770,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -3810,7 +4778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:57" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:57" ht="48" x14ac:dyDescent="0.2">
       <c r="C9" s="3">
         <v>0</v>
       </c>
@@ -3868,7 +4836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:57" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:57" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3945,7 +4913,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:57" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:57" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -4090,7 +5058,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:57" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:57" ht="16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -4235,7 +5203,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:57" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:57" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4</v>
       </c>
@@ -4380,7 +5348,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:57" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:57" ht="16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
@@ -4525,7 +5493,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:57" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:57" ht="16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -4670,7 +5638,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:57" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:57" ht="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>7</v>
       </c>
@@ -4815,7 +5783,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:59" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8</v>
       </c>
@@ -4960,7 +5928,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:59" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>9</v>
       </c>
@@ -5105,7 +6073,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:59" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10</v>
       </c>
@@ -5250,7 +6218,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:59" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>11</v>
       </c>
@@ -5395,7 +6363,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:59" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>12</v>
       </c>
@@ -5540,7 +6508,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:59" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>13</v>
       </c>
@@ -5695,7 +6663,7 @@
         <v>3.8434497304898056E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:59" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>14</v>
       </c>
@@ -5848,7 +6816,7 @@
         <v>3.846000946863605E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:59" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>15</v>
       </c>
@@ -6001,7 +6969,7 @@
         <v>3.8460157756811705E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:59" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>16</v>
       </c>
@@ -6154,7 +7122,7 @@
         <v>3.8461748291043596E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:59" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>17</v>
       </c>
@@ -6307,7 +7275,7 @@
         <v>3.846102309626645E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:59" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>18</v>
       </c>
@@ -6460,7 +7428,7 @@
         <v>3.8461655889159597E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:59" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>19</v>
       </c>
@@ -6613,7 +7581,7 @@
         <v>3.8461406770549787E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:59" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>20</v>
       </c>
@@ -6766,7 +7734,7 @@
         <v>3.8461643937046312E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:59" ht="15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>21</v>
       </c>
@@ -6905,7 +7873,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:59" ht="15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>22</v>
       </c>
@@ -7044,7 +8012,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:59" ht="15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>23</v>
       </c>
@@ -7183,7 +8151,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:59" ht="15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>24</v>
       </c>
@@ -7322,7 +8290,7 @@
         <v>3.8460049800668313E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:59" ht="15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>25</v>
       </c>
@@ -7461,7 +8429,7 @@
         <v>3.8469126060366933E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:59" ht="15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>26</v>
       </c>
@@ -7600,7 +8568,7 @@
         <v>3.8457564067236154E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:59" ht="15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>27</v>
       </c>
@@ -7739,7 +8707,7 @@
         <v>3.8465012646031554E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:59" ht="15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>28</v>
       </c>
@@ -7876,7 +8844,7 @@
         <v>1.9601580901433192E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:59" ht="18" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:59" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>29</v>
       </c>
@@ -8021,7 +8989,7 @@
         <v>-8.7336244541484712E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:59" ht="25" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:59" ht="25" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>2019</v>
       </c>
@@ -8107,7 +9075,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="40" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>2020</v>
       </c>
@@ -8155,7 +9123,7 @@
         <v>44.615504306163793</v>
       </c>
     </row>
-    <row r="41" spans="1:59" ht="25" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:59" ht="25" x14ac:dyDescent="0.25">
       <c r="B41" s="23" t="s">
         <v>47</v>
       </c>
@@ -8199,7 +9167,7 @@
         <v>45.238673649955643</v>
       </c>
     </row>
-    <row r="42" spans="1:59" ht="15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="D42" s="4">
         <f>+AVERAGE(D35:D39)</f>
         <v>18.792391773625674</v>
@@ -8215,7 +9183,7 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
     </row>
-    <row r="43" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B43" s="23" t="s">
         <v>48</v>
       </c>
@@ -8263,7 +9231,7 @@
         <v>45.726203804529433</v>
       </c>
     </row>
-    <row r="44" spans="1:59" ht="18" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:59" ht="18" x14ac:dyDescent="0.2">
       <c r="C44" s="15">
         <v>5</v>
       </c>
@@ -8280,7 +9248,7 @@
         <v>61.407688340686839</v>
       </c>
     </row>
-    <row r="45" spans="1:59" ht="15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="C45" s="8">
         <f>+AVERAGE(C34:C38)</f>
         <v>9.76</v>
@@ -8303,7 +9271,7 @@
       </c>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:59" x14ac:dyDescent="0.2">
       <c r="C46">
         <v>9.9</v>
       </c>
@@ -8331,19 +9299,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4E4C2B-7F1C-4799-B3BD-466496A6AAEF}">
   <dimension ref="A7:BG39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35:T35"/>
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="Y50" sqref="Y50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" customWidth="1"/>
     <col min="11" max="13" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="P7" s="1" t="s">
         <v>2</v>
       </c>
@@ -8352,7 +9320,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -8360,7 +9328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:59" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:59" ht="48" x14ac:dyDescent="0.2">
       <c r="C9" s="3">
         <v>0</v>
       </c>
@@ -8408,31 +9376,31 @@
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
     </row>
-    <row r="10" spans="1:59" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10">
         <v>19.899999999999999</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10">
         <v>44.9</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10">
         <v>64.099999999999994</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10">
         <v>85.9</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10">
         <v>91.4</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8">
-        <f t="shared" ref="I10:I32" si="0">+AVERAGE(C10:G10)</f>
+        <f>+AVERAGE(C10:G10)</f>
         <v>61.239999999999995</v>
       </c>
       <c r="J10" s="8">
@@ -8469,31 +9437,31 @@
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
     </row>
-    <row r="11" spans="1:59" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11">
         <v>8</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11">
         <v>12.4</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11">
         <v>16.7</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11">
         <v>20.3</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8">
-        <f t="shared" si="0"/>
+        <f>+AVERAGE(C11:G11)</f>
         <v>12.36</v>
       </c>
       <c r="J11" s="8">
@@ -8509,7 +9477,7 @@
         <v>24</v>
       </c>
       <c r="P11" s="5">
-        <f t="shared" ref="P11:P27" si="1">+EXP(LN(C11)-0.5*(LN(D12)-LN(C11)))</f>
+        <f>+EXP(LN(C11)-0.5*(LN(D12)-LN(C11)))</f>
         <v>1.7664351220163848</v>
       </c>
       <c r="Q11" s="5">
@@ -8535,31 +9503,31 @@
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
     </row>
-    <row r="12" spans="1:59" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12">
         <v>15.9</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12">
         <v>27.3</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12">
         <v>40.4</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12">
         <v>53.5</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12">
         <v>62.2</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8">
-        <f t="shared" si="0"/>
+        <f>+AVERAGE(C12:G12)</f>
         <v>39.86</v>
       </c>
       <c r="J12" s="8">
@@ -8575,23 +9543,23 @@
         <v>25</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" si="1"/>
+        <f>+EXP(LN(C12)-0.5*(LN(D13)-LN(C12)))</f>
         <v>14.82074863709437</v>
       </c>
       <c r="Q12" s="5">
-        <f t="shared" ref="Q12:T27" si="2">+GEOMEAN(D12,C11)</f>
+        <f>+GEOMEAN(D12,C11)</f>
         <v>10.959927007056207</v>
       </c>
       <c r="R12" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(E12,D11)</f>
         <v>17.977764043395386</v>
       </c>
       <c r="S12" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(F12,E11)</f>
         <v>25.756552564347583</v>
       </c>
       <c r="T12" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(G12,F11)</f>
         <v>32.229489601915823</v>
       </c>
       <c r="V12" s="4"/>
@@ -8601,31 +9569,31 @@
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
     </row>
-    <row r="13" spans="1:59" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13">
         <v>8</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13">
         <v>18.3</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13">
         <v>28.2</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13">
         <v>37.5</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13">
         <v>48</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8">
-        <f t="shared" si="0"/>
+        <f>+AVERAGE(C13:G13)</f>
         <v>28</v>
       </c>
       <c r="J13" s="8">
@@ -8641,23 +9609,23 @@
         <v>27</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" si="1"/>
+        <f>+EXP(LN(C13)-0.5*(LN(D14)-LN(C13)))</f>
         <v>5.9422508216656578</v>
       </c>
       <c r="Q13" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(D13,C12)</f>
         <v>17.0578427709954</v>
       </c>
       <c r="R13" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(E13,D12)</f>
         <v>27.746351111452476</v>
       </c>
       <c r="S13" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(F13,E12)</f>
         <v>38.923000912057127</v>
       </c>
       <c r="T13" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(G13,F12)</f>
         <v>50.675437837279709</v>
       </c>
       <c r="V13" s="4"/>
@@ -8667,31 +9635,31 @@
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
     </row>
-    <row r="14" spans="1:59" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14">
         <v>8.1</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14">
         <v>14.5</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14">
         <v>25.8</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14">
         <v>34.1</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14">
         <v>42.8</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8">
-        <f t="shared" si="0"/>
+        <f>+AVERAGE(C14:G14)</f>
         <v>25.06</v>
       </c>
       <c r="J14" s="8">
@@ -8711,19 +9679,19 @@
         <v>5.3026947327346159</v>
       </c>
       <c r="Q14" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(D14,C13)</f>
         <v>10.770329614269007</v>
       </c>
       <c r="R14" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(E14,D13)</f>
         <v>21.728782754678186</v>
       </c>
       <c r="S14" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(F14,E13)</f>
         <v>31.009998387616854</v>
       </c>
       <c r="T14" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(G14,F13)</f>
         <v>40.06245124802026</v>
       </c>
       <c r="V14" s="4"/>
@@ -8733,31 +9701,31 @@
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
     </row>
-    <row r="15" spans="1:59" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15">
         <v>6.5</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15">
         <v>18.899999999999999</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15">
         <v>27.7</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15">
         <v>36.6</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15">
         <v>47.9</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8">
-        <f t="shared" si="0"/>
+        <f>+AVERAGE(C15:G15)</f>
         <v>27.52</v>
       </c>
       <c r="J15" s="8">
@@ -8773,23 +9741,23 @@
         <v>28</v>
       </c>
       <c r="P15" s="5">
-        <f t="shared" si="1"/>
+        <f>+EXP(LN(C15)-0.5*(LN(D16)-LN(C15)))</f>
         <v>2.9526689567667366</v>
       </c>
       <c r="Q15" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(D15,C14)</f>
         <v>12.372954376380767</v>
       </c>
       <c r="R15" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(E15,D14)</f>
         <v>20.041207548448771</v>
       </c>
       <c r="S15" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(F15,E14)</f>
         <v>30.729139265524509</v>
       </c>
       <c r="T15" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(G15,F14)</f>
         <v>40.415219905377235</v>
       </c>
       <c r="V15" s="4"/>
@@ -8799,31 +9767,31 @@
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
     </row>
-    <row r="16" spans="1:59" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16">
         <v>14.9</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16">
         <v>31.5</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16">
         <v>48</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16">
         <v>61.7</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16">
         <v>80</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8">
-        <f t="shared" si="0"/>
+        <f>+AVERAGE(C16:G16)</f>
         <v>47.220000000000006</v>
       </c>
       <c r="J16" s="8">
@@ -8839,23 +9807,23 @@
         <v>29</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" si="1"/>
+        <f>+EXP(LN(C16)-0.5*(LN(D17)-LN(C16)))</f>
         <v>13.632308368749365</v>
       </c>
       <c r="Q16" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(D16,C15)</f>
         <v>14.309088021254185</v>
       </c>
       <c r="R16" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(E16,D15)</f>
         <v>30.11976095522672</v>
       </c>
       <c r="S16" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(F16,E15)</f>
         <v>41.341141735564101</v>
       </c>
       <c r="T16" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(G16,F15)</f>
         <v>54.110997033874732</v>
       </c>
       <c r="V16" s="4"/>
@@ -8886,31 +9854,31 @@
       <c r="BE16" s="1"/>
       <c r="BG16" s="13"/>
     </row>
-    <row r="17" spans="1:59" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17">
         <v>10.5</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17">
         <v>17.8</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17">
         <v>27.3</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17">
         <v>35</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17">
         <v>40</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8">
-        <f t="shared" si="0"/>
+        <f>+AVERAGE(C17:G17)</f>
         <v>26.119999999999997</v>
       </c>
       <c r="J17" s="8">
@@ -8926,23 +9894,23 @@
         <v>30</v>
       </c>
       <c r="P17" s="5">
-        <f t="shared" si="1"/>
+        <f>+EXP(LN(C17)-0.5*(LN(D18)-LN(C17)))</f>
         <v>7.9318599441690223</v>
       </c>
       <c r="Q17" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(D17,C16)</f>
         <v>16.285576440519385</v>
       </c>
       <c r="R17" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(E17,D16)</f>
         <v>29.324904091914778</v>
       </c>
       <c r="S17" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(F17,E16)</f>
         <v>40.987803063838392</v>
       </c>
       <c r="T17" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(G17,F16)</f>
         <v>49.678969393496885</v>
       </c>
       <c r="V17" s="4"/>
@@ -8953,31 +9921,31 @@
       <c r="AA17" s="7"/>
       <c r="BG17" s="13"/>
     </row>
-    <row r="18" spans="1:59" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18">
         <v>10.5</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18">
         <v>18.399999999999999</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18">
         <v>28.8</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18">
         <v>35.799999999999997</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18">
         <v>41.1</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8">
-        <f t="shared" si="0"/>
+        <f>+AVERAGE(C18:G18)</f>
         <v>26.919999999999998</v>
       </c>
       <c r="J18" s="8">
@@ -8993,23 +9961,23 @@
         <v>31</v>
       </c>
       <c r="P18" s="5">
-        <f t="shared" si="1"/>
+        <f>+EXP(LN(C18)-0.5*(LN(D19)-LN(C18)))</f>
         <v>8.5596381385716978</v>
       </c>
       <c r="Q18" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(D18,C17)</f>
         <v>13.899640283115243</v>
       </c>
       <c r="R18" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(E18,D17)</f>
         <v>22.641554716935847</v>
       </c>
       <c r="S18" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(F18,E17)</f>
         <v>31.262437524927581</v>
       </c>
       <c r="T18" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(G18,F17)</f>
         <v>37.927562537025764</v>
       </c>
       <c r="V18" s="4"/>
@@ -9020,31 +9988,31 @@
       <c r="AA18" s="7"/>
       <c r="BG18" s="13"/>
     </row>
-    <row r="19" spans="1:59" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19">
         <v>8.6</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19">
         <v>15.8</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19">
         <v>25.2</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19">
         <v>32.9</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19">
         <v>37.200000000000003</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8">
-        <f t="shared" si="0"/>
+        <f>+AVERAGE(C19:G19)</f>
         <v>23.94</v>
       </c>
       <c r="J19" s="8">
@@ -9060,23 +10028,23 @@
         <v>32</v>
       </c>
       <c r="P19" s="5">
-        <f t="shared" si="1"/>
+        <f>+EXP(LN(C19)-0.5*(LN(D20)-LN(C19)))</f>
         <v>6.2659968121107994</v>
       </c>
       <c r="Q19" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(D19,C18)</f>
         <v>12.880217389469792</v>
       </c>
       <c r="R19" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(E19,D18)</f>
         <v>21.53323013391163</v>
       </c>
       <c r="S19" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(F19,E18)</f>
         <v>30.781812812113582</v>
       </c>
       <c r="T19" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(G19,F18)</f>
         <v>36.493287053922671</v>
       </c>
       <c r="V19" s="4"/>
@@ -9087,31 +10055,31 @@
       <c r="AA19" s="7"/>
       <c r="BG19" s="13"/>
     </row>
-    <row r="20" spans="1:59" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20">
         <v>9.1</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20">
         <v>16.2</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20">
         <v>25.4</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20">
         <v>33.9</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20">
         <v>35.700000000000003</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8">
-        <f t="shared" si="0"/>
+        <f>+AVERAGE(C20:G20)</f>
         <v>24.06</v>
       </c>
       <c r="J20" s="8">
@@ -9127,23 +10095,23 @@
         <v>33</v>
       </c>
       <c r="P20" s="5">
-        <f t="shared" si="1"/>
+        <f>+EXP(LN(C20)-0.5*(LN(D21)-LN(C20)))</f>
         <v>6.9061108511670728</v>
       </c>
       <c r="Q20" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(D20,C19)</f>
         <v>11.803389343743602</v>
       </c>
       <c r="R20" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(E20,D19)</f>
         <v>20.032972819828814</v>
       </c>
       <c r="S20" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(F20,E19)</f>
         <v>29.228068701164638</v>
       </c>
       <c r="T20" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(G20,F19)</f>
         <v>34.271416661702212</v>
       </c>
       <c r="V20" s="4"/>
@@ -9154,31 +10122,31 @@
       <c r="AA20" s="7"/>
       <c r="BG20" s="13"/>
     </row>
-    <row r="21" spans="1:59" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21">
         <v>15.8</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21">
         <v>28.1</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21">
         <v>35</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21">
         <v>38.799999999999997</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8">
-        <f t="shared" si="0"/>
+        <f>+AVERAGE(C21:G21)</f>
         <v>25.279999999999998</v>
       </c>
       <c r="J21" s="8">
@@ -9194,23 +10162,23 @@
         <v>34</v>
       </c>
       <c r="P21" s="5">
-        <f t="shared" si="1"/>
+        <f>+EXP(LN(C21)-0.5*(LN(D22)-LN(C21)))</f>
         <v>7.010136583931379</v>
       </c>
       <c r="Q21" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(D21,C20)</f>
         <v>11.990829829498875</v>
       </c>
       <c r="R21" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(E21,D20)</f>
         <v>21.335885264033458</v>
       </c>
       <c r="S21" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(F21,E20)</f>
         <v>29.816103031751148</v>
       </c>
       <c r="T21" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(G21,F20)</f>
         <v>36.267340680011266</v>
       </c>
       <c r="V21" s="4"/>
@@ -9221,31 +10189,31 @@
       <c r="AA21" s="7"/>
       <c r="BG21" s="13"/>
     </row>
-    <row r="22" spans="1:59" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22">
         <v>8.1</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22">
         <v>13.4</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22">
         <v>25.8</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22">
         <v>33.200000000000003</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22">
         <v>41.7</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8">
-        <f t="shared" si="0"/>
+        <f>+AVERAGE(C22:G22)</f>
         <v>24.44</v>
       </c>
       <c r="J22" s="8">
@@ -9261,23 +10229,23 @@
         <v>35</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" si="1"/>
+        <f>+EXP(LN(C22)-0.5*(LN(D23)-LN(C22)))</f>
         <v>6.4435105435624163</v>
       </c>
       <c r="Q22" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(D22,C21)</f>
         <v>10.797221864905806</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(E22,D21)</f>
         <v>20.190096582235562</v>
       </c>
       <c r="S22" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(F22,E21)</f>
         <v>30.543739129320759</v>
       </c>
       <c r="T22" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(G22,F21)</f>
         <v>38.203402989786134</v>
       </c>
       <c r="V22" s="4"/>
@@ -9288,31 +10256,31 @@
       <c r="AA22" s="7"/>
       <c r="BG22" s="13"/>
     </row>
-    <row r="23" spans="1:59" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23">
         <v>7.3</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23">
         <v>12.8</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23">
         <v>23.7</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23">
         <v>32.299999999999997</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23">
         <v>36.1</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8">
-        <f t="shared" si="0"/>
+        <f>+AVERAGE(C23:G23)</f>
         <v>22.439999999999998</v>
       </c>
       <c r="J23" s="8">
@@ -9328,23 +10296,23 @@
         <v>36</v>
       </c>
       <c r="P23" s="5">
-        <f t="shared" si="1"/>
+        <f>+EXP(LN(C23)-0.5*(LN(D24)-LN(C23)))</f>
         <v>4.900346422624466</v>
       </c>
       <c r="Q23" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(D23,C22)</f>
         <v>10.182337649086286</v>
       </c>
       <c r="R23" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(E23,D22)</f>
         <v>17.820774393948206</v>
       </c>
       <c r="S23" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(F23,E22)</f>
         <v>28.867628929304185</v>
       </c>
       <c r="T23" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(G23,F22)</f>
         <v>34.619647600748337</v>
       </c>
       <c r="V23" s="4"/>
@@ -9355,31 +10323,31 @@
       <c r="AA23" s="7"/>
       <c r="BG23" s="13"/>
     </row>
-    <row r="24" spans="1:59" ht="15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24">
         <v>9.9</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24">
         <v>16.2</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24">
         <v>23</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24">
         <v>33.9</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24">
         <v>42</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8">
-        <f t="shared" si="0"/>
+        <f>+AVERAGE(C24:G24)</f>
         <v>25</v>
       </c>
       <c r="J24" s="8">
@@ -9395,54 +10363,54 @@
         <v>37</v>
       </c>
       <c r="P24" s="5">
-        <f t="shared" si="1"/>
+        <f>+EXP(LN(C24)-0.5*(LN(D25)-LN(C24)))</f>
         <v>6.9136083412040712</v>
       </c>
       <c r="Q24" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(D24,C23)</f>
         <v>10.874741376235114</v>
       </c>
       <c r="R24" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(E24,D23)</f>
         <v>17.158088471621774</v>
       </c>
       <c r="S24" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(F24,E23)</f>
         <v>28.344840800399638</v>
       </c>
       <c r="T24" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(G24,F23)</f>
         <v>36.832051259738442</v>
       </c>
       <c r="U24" s="2"/>
       <c r="V24" s="4"/>
       <c r="BG24" s="13"/>
     </row>
-    <row r="25" spans="1:59" ht="15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25">
         <v>7.3</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25">
         <v>20.3</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25">
         <v>29.3</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25">
         <v>34.200000000000003</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25">
         <v>44.8</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8">
-        <f t="shared" si="0"/>
+        <f>+AVERAGE(C25:G25)</f>
         <v>27.18</v>
       </c>
       <c r="J25" s="8">
@@ -9458,54 +10426,54 @@
         <v>38</v>
       </c>
       <c r="P25" s="5">
-        <f t="shared" si="1"/>
+        <f>+EXP(LN(C25)-0.5*(LN(D26)-LN(C25)))</f>
         <v>4.5856238338906463</v>
       </c>
       <c r="Q25" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(D25,C24)</f>
         <v>14.176388820852791</v>
       </c>
       <c r="R25" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(E25,D24)</f>
         <v>21.786693186438367</v>
       </c>
       <c r="S25" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(F25,E24)</f>
         <v>28.046390142048583</v>
       </c>
       <c r="T25" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(G25,F24)</f>
         <v>38.970758268219519</v>
       </c>
       <c r="U25" s="2"/>
       <c r="V25" s="4"/>
       <c r="BG25" s="13"/>
     </row>
-    <row r="26" spans="1:59" ht="15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26">
         <v>10.8</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26">
         <v>18.5</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26">
         <v>23.8</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26">
         <v>32.200000000000003</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26">
         <v>48.7</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8">
-        <f t="shared" si="0"/>
+        <f>+AVERAGE(C26:G26)</f>
         <v>26.8</v>
       </c>
       <c r="J26" s="8">
@@ -9521,54 +10489,54 @@
         <v>39</v>
       </c>
       <c r="P26" s="5">
-        <f t="shared" si="1"/>
+        <f>+EXP(LN(C26)-0.5*(LN(D27)-LN(C26)))</f>
         <v>7.2148606969249967</v>
       </c>
       <c r="Q26" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(D26,C25)</f>
         <v>11.621101496846157</v>
       </c>
       <c r="R26" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(E26,D25)</f>
         <v>21.980445855350617</v>
       </c>
       <c r="S26" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(F26,E25)</f>
         <v>30.71579398290072</v>
       </c>
       <c r="T26" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(G26,F25)</f>
         <v>40.811027921384195</v>
       </c>
       <c r="U26" s="2"/>
       <c r="V26" s="4"/>
       <c r="BG26" s="13"/>
     </row>
-    <row r="27" spans="1:59" ht="15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27">
         <v>11.7</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27">
         <v>24.2</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27">
         <v>33.9</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27">
         <v>45.7</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27">
         <v>50</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8">
-        <f t="shared" si="0"/>
+        <f>+AVERAGE(C27:G27)</f>
         <v>33.1</v>
       </c>
       <c r="J27" s="8">
@@ -9584,54 +10552,54 @@
         <v>40</v>
       </c>
       <c r="P27" s="5">
-        <f t="shared" si="1"/>
+        <f>+EXP(LN(C27)-0.5*(LN(D28)-LN(C27)))</f>
         <v>7.9251721079845643</v>
       </c>
       <c r="Q27" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(D27,C26)</f>
         <v>16.166632302368974</v>
       </c>
       <c r="R27" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(E27,D26)</f>
         <v>25.042963083469175</v>
       </c>
       <c r="S27" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(F27,E26)</f>
         <v>32.979690720199301</v>
       </c>
       <c r="T27" s="5">
-        <f t="shared" si="2"/>
+        <f>+GEOMEAN(G27,F26)</f>
         <v>40.124805295477763</v>
       </c>
       <c r="U27" s="2"/>
       <c r="V27" s="4"/>
       <c r="BG27" s="13"/>
     </row>
-    <row r="28" spans="1:59" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28">
         <v>8.9</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28">
         <v>25.5</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28">
         <v>33</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28">
         <v>44.8</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28">
         <v>44.1</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8">
-        <f t="shared" si="0"/>
+        <f>+AVERAGE(C28:G28)</f>
         <v>31.26</v>
       </c>
       <c r="J28" s="8">
@@ -9655,46 +10623,46 @@
         <v>17.272811004581737</v>
       </c>
       <c r="R28" s="5">
-        <f t="shared" ref="R28:T33" si="3">+GEOMEAN(E28,D27)</f>
+        <f>+GEOMEAN(E28,D27)</f>
         <v>28.259511673063287</v>
       </c>
       <c r="S28" s="5">
-        <f t="shared" si="3"/>
+        <f>+GEOMEAN(F28,E27)</f>
         <v>38.970758268219519</v>
       </c>
       <c r="T28" s="5">
-        <f t="shared" si="3"/>
+        <f>+GEOMEAN(G28,F27)</f>
         <v>44.892872485507098</v>
       </c>
       <c r="U28" s="2"/>
       <c r="V28" s="4"/>
       <c r="BG28" s="13"/>
     </row>
-    <row r="29" spans="1:59" ht="15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29">
         <v>10</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29">
         <v>24.7</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29">
         <v>35.299999999999997</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29">
         <v>45.2</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29">
         <v>49.7</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="8">
-        <f t="shared" si="0"/>
+        <f>+AVERAGE(C29:G29)</f>
         <v>32.980000000000004</v>
       </c>
       <c r="J29" s="8">
@@ -9718,46 +10686,46 @@
         <v>14.826665167865631</v>
       </c>
       <c r="R29" s="5">
-        <f t="shared" si="3"/>
+        <f>+GEOMEAN(E29,D28)</f>
         <v>30.002499895842014</v>
       </c>
       <c r="S29" s="5">
-        <f t="shared" si="3"/>
+        <f>+GEOMEAN(F29,E28)</f>
         <v>38.621237680840835</v>
       </c>
       <c r="T29" s="5">
-        <f t="shared" si="3"/>
+        <f>+GEOMEAN(G29,F28)</f>
         <v>47.186438729787611</v>
       </c>
       <c r="U29" s="2"/>
       <c r="V29" s="5"/>
       <c r="BG29" s="13"/>
     </row>
-    <row r="30" spans="1:59" ht="15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30">
         <v>10.5</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30">
         <v>24.6</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30">
         <v>34</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30">
         <v>44.6</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30">
         <v>54.8</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="8">
-        <f t="shared" si="0"/>
+        <f>+AVERAGE(C30:G30)</f>
         <v>33.700000000000003</v>
       </c>
       <c r="J30" s="8">
@@ -9781,46 +10749,46 @@
         <v>15.684387141358123</v>
       </c>
       <c r="R30" s="9">
-        <f t="shared" si="3"/>
+        <f>+GEOMEAN(E30,D29)</f>
         <v>28.979302959181055</v>
       </c>
       <c r="S30" s="9">
-        <f t="shared" si="3"/>
+        <f>+GEOMEAN(F30,E29)</f>
         <v>39.678457631314245</v>
       </c>
       <c r="T30" s="9">
-        <f t="shared" si="3"/>
+        <f>+GEOMEAN(G30,F29)</f>
         <v>49.769066698100737</v>
       </c>
       <c r="U30" s="2"/>
       <c r="V30" s="4"/>
       <c r="BG30" s="13"/>
     </row>
-    <row r="31" spans="1:59" ht="15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31">
         <v>6</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31">
         <v>17.399999999999999</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31">
         <v>27.9</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31">
         <v>38.200000000000003</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31">
         <v>36</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="8">
-        <f t="shared" si="0"/>
+        <f>+AVERAGE(C31:G31)</f>
         <v>25.1</v>
       </c>
       <c r="J31" s="8">
@@ -9836,52 +10804,52 @@
         <v>44</v>
       </c>
       <c r="P31" s="9">
-        <f t="shared" ref="P31:P32" si="4">+EXP(LN(C31)-0.5*(LN(D32)-LN(C31)))</f>
+        <f>+EXP(LN(C31)-0.5*(LN(D32)-LN(C31)))</f>
         <v>2.9875775863918146</v>
       </c>
       <c r="Q31" s="9">
-        <f t="shared" ref="Q31" si="5">+GEOMEAN(D31,C30)</f>
+        <f>+GEOMEAN(D31,C30)</f>
         <v>13.516656391282572</v>
       </c>
       <c r="R31" s="9">
-        <f t="shared" si="3"/>
+        <f>+GEOMEAN(E31,D30)</f>
         <v>26.198091533544957</v>
       </c>
       <c r="S31" s="9">
-        <f t="shared" si="3"/>
+        <f>+GEOMEAN(F31,E30)</f>
         <v>36.038867906747576</v>
       </c>
       <c r="T31" s="9">
-        <f t="shared" si="3"/>
+        <f>+GEOMEAN(G31,F30)</f>
         <v>40.069938856953605</v>
       </c>
       <c r="BG31" s="13"/>
     </row>
-    <row r="32" spans="1:59" ht="18" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32">
         <v>6.6</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32">
         <v>24.2</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32">
         <v>33.4</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32">
         <v>43.6</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32">
         <v>54.8</v>
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="8">
-        <f t="shared" si="0"/>
+        <f>+AVERAGE(C32:G32)</f>
         <v>32.519999999999996</v>
       </c>
       <c r="J32" s="8">
@@ -9897,19 +10865,19 @@
         <v>45</v>
       </c>
       <c r="P32" s="9">
-        <f t="shared" si="4"/>
-        <v>3.7839862466740786</v>
+        <f>+EXP(LN(C32)-0.5*(LN(D33)-LN(C32)))</f>
+        <v>3.8899059655797115</v>
       </c>
       <c r="Q32" s="9">
         <f>+GEOMEAN(D32,C31)</f>
         <v>12.049896265113654</v>
       </c>
       <c r="R32" s="9">
-        <f t="shared" si="3"/>
+        <f>+GEOMEAN(E32,D31)</f>
         <v>24.107260317174159</v>
       </c>
       <c r="S32" s="9">
-        <f t="shared" si="3"/>
+        <f>+GEOMEAN(F32,E31)</f>
         <v>34.877499910400687</v>
       </c>
       <c r="T32" s="9">
@@ -9919,104 +10887,108 @@
       <c r="AV32" s="21"/>
       <c r="BG32" s="13"/>
     </row>
-    <row r="33" spans="2:31" ht="25" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="22">
-        <v>9.5569493752814942</v>
-      </c>
-      <c r="D33" s="22">
-        <v>20.078566722829585</v>
-      </c>
-      <c r="E33" s="22">
-        <v>29.496918877139439</v>
-      </c>
-      <c r="F33" s="22">
-        <v>39.769325000904438</v>
-      </c>
-      <c r="G33" s="22">
-        <v>49.272698618101906</v>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>19</v>
+      </c>
+      <c r="E33">
+        <v>27.5</v>
+      </c>
+      <c r="F33">
+        <v>36</v>
+      </c>
+      <c r="G33">
+        <v>44</v>
+      </c>
+      <c r="I33" s="8">
+        <f t="shared" ref="I33:I34" si="0">+AVERAGE(C33:G33)</f>
+        <v>26.9</v>
+      </c>
+      <c r="J33" s="8">
+        <v>30.97</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>46</v>
       </c>
       <c r="P33" s="9">
         <f>+EXP(LN(C33)-0.5*(LN(D34)-LN(C33)))</f>
-        <v>6.2711093629203827</v>
+        <v>5.0345342042204191</v>
       </c>
       <c r="Q33" s="9">
         <f>+GEOMEAN(D33,C32)</f>
-        <v>11.511669747290149</v>
+        <v>11.198214143335534</v>
       </c>
       <c r="R33" s="9">
-        <f t="shared" si="3"/>
-        <v>26.717511800816602</v>
+        <f>+GEOMEAN(E33,D32)</f>
+        <v>25.797286679028861</v>
       </c>
       <c r="S33" s="9">
-        <f t="shared" si="3"/>
-        <v>36.445787891472563</v>
+        <f>+GEOMEAN(F33,E32)</f>
+        <v>34.675639864319734</v>
       </c>
       <c r="T33" s="9">
-        <f t="shared" ref="T33" si="6">+GEOMEAN(G33,F32)</f>
-        <v>46.349645734883921</v>
+        <f>+GEOMEAN(G33,F32)</f>
+        <v>43.79954337661524</v>
       </c>
       <c r="AE33" s="19"/>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="D34" s="4">
-        <f>+AVERAGE(D29:D33)</f>
-        <v>22.195713344565917</v>
-      </c>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
+    <row r="34" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34">
+        <v>11.3</v>
+      </c>
+      <c r="D34">
+        <v>20.2</v>
+      </c>
+      <c r="E34">
+        <v>30.9</v>
+      </c>
+      <c r="F34">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="G34">
+        <v>40.4</v>
+      </c>
+      <c r="I34" s="8">
+        <f t="shared" si="0"/>
+        <v>28.419999999999998</v>
+      </c>
+      <c r="J34" s="8">
+        <v>31.97</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P34" s="9">
+        <f>+EXP(LN(C34)-0.5*(LN(D38)-LN(C34)))</f>
+        <v>8.2733683762071788</v>
+      </c>
+      <c r="Q34" s="9">
+        <f>+GEOMEAN(D34,C33)</f>
+        <v>12.712198865656562</v>
+      </c>
+      <c r="R34" s="9">
+        <f>+GEOMEAN(E34,D33)</f>
+        <v>24.230146512144742</v>
+      </c>
+      <c r="S34" s="9">
+        <f>+GEOMEAN(F34,E33)</f>
+        <v>32.874762356555522</v>
+      </c>
+      <c r="T34" s="9">
+        <f>+GEOMEAN(G34,F33)</f>
+        <v>38.136596596969689</v>
+      </c>
     </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="C35" s="4">
-        <f>+AVERAGE(C29:C33)</f>
-        <v>8.5313898750563002</v>
-      </c>
-      <c r="D35" s="4">
-        <f t="shared" ref="D35:G35" si="7">+AVERAGE(D29:D33)</f>
-        <v>22.195713344565917</v>
-      </c>
-      <c r="E35" s="4">
-        <f t="shared" si="7"/>
-        <v>32.01938377542789</v>
-      </c>
-      <c r="F35" s="4">
-        <f t="shared" si="7"/>
-        <v>42.273865000180891</v>
-      </c>
-      <c r="G35" s="4">
-        <f t="shared" si="7"/>
-        <v>48.914539723620386</v>
-      </c>
-      <c r="P35" s="4">
-        <f>+AVERAGE(P29:P33)</f>
-        <v>5.5150086642718295</v>
-      </c>
-      <c r="Q35" s="4">
-        <f t="shared" ref="Q35:T35" si="8">+AVERAGE(Q29:Q33)</f>
-        <v>13.517854942582025</v>
-      </c>
-      <c r="R35" s="4">
-        <f t="shared" si="8"/>
-        <v>27.200933301311757</v>
-      </c>
-      <c r="S35" s="4">
-        <f t="shared" si="8"/>
-        <v>37.13237020415518</v>
-      </c>
-      <c r="T35" s="4">
-        <f t="shared" si="8"/>
-        <v>45.825668254064013</v>
-      </c>
-    </row>
-    <row r="36" spans="2:31" ht="15" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
@@ -10024,14 +10996,55 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
     </row>
-    <row r="38" spans="2:31" ht="18" x14ac:dyDescent="0.4">
-      <c r="C38" s="15"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="4">
+        <f>+AVERAGE(C30:C34)</f>
+        <v>8.48</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" ref="D38:G38" si="1">+AVERAGE(D30:D34)</f>
+        <v>21.080000000000002</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="1"/>
+        <v>30.74</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" si="1"/>
+        <v>40.339999999999996</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="O38" t="s">
+        <v>4</v>
+      </c>
+      <c r="P38" s="4">
+        <f>+AVERAGE(P29:P33)</f>
+        <v>5.288877576312963</v>
+      </c>
+      <c r="Q38" s="4">
+        <f>+AVERAGE(Q29:Q33)</f>
+        <v>13.455163821791103</v>
+      </c>
+      <c r="R38" s="4">
+        <f>+AVERAGE(R29:R33)</f>
+        <v>27.016888276954212</v>
+      </c>
+      <c r="S38" s="4">
+        <f>+AVERAGE(S29:S33)</f>
+        <v>36.778340598724618</v>
+      </c>
+      <c r="T38" s="4">
+        <f>+AVERAGE(T29:T33)</f>
+        <v>45.315647782410281</v>
+      </c>
     </row>
-    <row r="39" spans="2:31" ht="15" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -10053,9 +11066,9 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -10078,7 +11091,7 @@
         <v>0.12812000000000001</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>5.6</v>
       </c>
@@ -10110,7 +11123,7 @@
         <v>0.17015</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>4.5999999999999996</v>
       </c>
@@ -10142,7 +11155,7 @@
         <v>0.21646000000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3.1</v>
       </c>
@@ -10174,7 +11187,7 @@
         <v>0.18479999999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>5.0999999999999996</v>
       </c>
@@ -10206,7 +11219,7 @@
         <v>0.14959</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>4.5</v>
       </c>
@@ -10238,7 +11251,7 @@
         <v>0.12861</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>6.4</v>
       </c>
@@ -10270,7 +11283,7 @@
         <v>0.10836999999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>4.9000000000000004</v>
       </c>
@@ -10302,7 +11315,7 @@
         <v>0.12005</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>10.9</v>
       </c>
@@ -10334,7 +11347,7 @@
         <v>0.11942</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>10.6</v>
       </c>
@@ -10366,7 +11379,7 @@
         <v>0.10457</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>6.1</v>
       </c>
@@ -10398,7 +11411,7 @@
         <v>8.6565000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>5.6</v>
       </c>
@@ -10430,7 +11443,7 @@
         <v>0.12859999999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>4.9000000000000004</v>
       </c>
@@ -10462,7 +11475,7 @@
         <v>0.12051000000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>5.4</v>
       </c>
@@ -10494,7 +11507,7 @@
         <v>0.14457</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>7.6</v>
       </c>
@@ -10526,7 +11539,7 @@
         <v>0.20038</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>8.9</v>
       </c>
@@ -10558,7 +11571,7 @@
         <v>0.18612000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>5</v>
       </c>
@@ -10590,7 +11603,7 @@
         <v>0.14979000000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>7.4</v>
       </c>
@@ -10622,7 +11635,7 @@
         <v>0.13708999999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>5.8</v>
       </c>
@@ -10654,7 +11667,7 @@
         <v>9.4447000000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>5.0999999999999996</v>
       </c>
@@ -10686,7 +11699,7 @@
         <v>4.7222E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>5</v>
       </c>
@@ -10718,7 +11731,7 @@
         <v>2.198E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>6.8</v>
       </c>
@@ -10750,7 +11763,7 @@
         <v>1.5280999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>4.0999999999999996</v>
       </c>
@@ -10782,7 +11795,7 @@
         <v>1.5792E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>7.4</v>
       </c>
@@ -10814,7 +11827,7 @@
         <v>1.8932999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>9.4</v>
       </c>
@@ -10846,7 +11859,7 @@
         <v>2.6183000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>4.9000000000000004</v>
       </c>
@@ -10878,7 +11891,7 @@
         <v>3.7666999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>8.3000000000000007</v>
       </c>
@@ -10910,7 +11923,7 @@
         <v>5.7424999999999997E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H30">
         <v>28</v>
       </c>
@@ -10927,7 +11940,7 @@
         <v>6.1552000000000003E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H31">
         <v>29</v>
       </c>
@@ -10957,9 +11970,9 @@
       <selection activeCell="AC34" sqref="AC34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="3:31" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:31" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
@@ -11042,7 +12055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="3:31" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:31" ht="16" x14ac:dyDescent="0.2">
       <c r="C3" s="11">
         <v>1990</v>
       </c>
@@ -11125,7 +12138,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="4" spans="3:31" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:31" ht="16" x14ac:dyDescent="0.2">
       <c r="C4" s="11">
         <v>1991</v>
       </c>
@@ -11208,7 +12221,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="5" spans="3:31" ht="15" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:31" ht="16" x14ac:dyDescent="0.2">
       <c r="C5" s="11">
         <v>1992</v>
       </c>
@@ -11291,7 +12304,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="6" spans="3:31" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:31" ht="16" x14ac:dyDescent="0.2">
       <c r="C6" s="11">
         <v>1993</v>
       </c>
@@ -11374,7 +12387,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="7" spans="3:31" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:31" ht="16" x14ac:dyDescent="0.2">
       <c r="C7" s="11">
         <v>1994</v>
       </c>
@@ -11457,7 +12470,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="8" spans="3:31" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:31" ht="16" x14ac:dyDescent="0.2">
       <c r="C8" s="11">
         <v>1995</v>
       </c>
@@ -11540,7 +12553,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="9" spans="3:31" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:31" ht="16" x14ac:dyDescent="0.2">
       <c r="C9" s="11">
         <v>1996</v>
       </c>
@@ -11623,7 +12636,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="10" spans="3:31" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:31" ht="16" x14ac:dyDescent="0.2">
       <c r="C10" s="11">
         <v>1997</v>
       </c>
@@ -11706,7 +12719,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="11" spans="3:31" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:31" ht="16" x14ac:dyDescent="0.2">
       <c r="C11" s="11">
         <v>1998</v>
       </c>
@@ -11789,7 +12802,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="12" spans="3:31" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:31" ht="16" x14ac:dyDescent="0.2">
       <c r="C12" s="11">
         <v>1999</v>
       </c>
@@ -11872,7 +12885,7 @@
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="13" spans="3:31" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:31" ht="16" x14ac:dyDescent="0.2">
       <c r="C13" s="11">
         <v>2000</v>
       </c>
@@ -11955,7 +12968,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="14" spans="3:31" ht="15" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:31" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="11">
         <v>2001</v>
       </c>
@@ -12038,7 +13051,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="15" spans="3:31" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:31" ht="16" x14ac:dyDescent="0.2">
       <c r="C15" s="11">
         <v>2002</v>
       </c>
@@ -12121,7 +13134,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="16" spans="3:31" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:31" ht="16" x14ac:dyDescent="0.2">
       <c r="C16" s="11">
         <v>2003</v>
       </c>
@@ -12204,7 +13217,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="17" spans="3:31" ht="15" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:31" ht="16" x14ac:dyDescent="0.2">
       <c r="C17" s="11">
         <v>2004</v>
       </c>
@@ -12287,7 +13300,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:31" ht="15" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:31" ht="16" x14ac:dyDescent="0.2">
       <c r="C18" s="11">
         <v>2005</v>
       </c>
@@ -12370,7 +13383,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="19" spans="3:31" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:31" ht="16" x14ac:dyDescent="0.2">
       <c r="C19" s="11">
         <v>2006</v>
       </c>
@@ -12453,7 +13466,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="20" spans="3:31" ht="15" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:31" ht="16" x14ac:dyDescent="0.2">
       <c r="C20" s="11">
         <v>2007</v>
       </c>
@@ -12536,7 +13549,7 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="21" spans="3:31" ht="15" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:31" ht="16" x14ac:dyDescent="0.2">
       <c r="C21" s="11">
         <v>2008</v>
       </c>
@@ -12619,7 +13632,7 @@
         <v>0.18099999999999999</v>
       </c>
     </row>
-    <row r="22" spans="3:31" ht="15" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:31" ht="16" x14ac:dyDescent="0.2">
       <c r="C22" s="11">
         <v>2009</v>
       </c>
@@ -12702,7 +13715,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="23" spans="3:31" ht="15" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:31" ht="16" x14ac:dyDescent="0.2">
       <c r="C23" s="11">
         <v>2010</v>
       </c>
@@ -12785,7 +13798,7 @@
         <v>0.34899999999999998</v>
       </c>
     </row>
-    <row r="24" spans="3:31" ht="15" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:31" ht="16" x14ac:dyDescent="0.2">
       <c r="C24" s="11">
         <v>2011</v>
       </c>
@@ -12868,7 +13881,7 @@
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="25" spans="3:31" ht="15" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:31" ht="16" x14ac:dyDescent="0.2">
       <c r="C25" s="11">
         <v>2012</v>
       </c>
@@ -12951,7 +13964,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="26" spans="3:31" ht="15" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:31" ht="16" x14ac:dyDescent="0.2">
       <c r="C26" s="11">
         <v>2013</v>
       </c>
@@ -13034,7 +14047,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="27" spans="3:31" ht="15" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:31" ht="16" x14ac:dyDescent="0.2">
       <c r="C27" s="11">
         <v>2014</v>
       </c>
@@ -13117,7 +14130,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="28" spans="3:31" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:31" ht="16" x14ac:dyDescent="0.2">
       <c r="C28" s="11">
         <v>2015</v>
       </c>
@@ -13200,7 +14213,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="29" spans="3:31" ht="15" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:31" ht="16" x14ac:dyDescent="0.2">
       <c r="C29" s="11">
         <v>2016</v>
       </c>
@@ -13283,7 +14296,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="30" spans="3:31" ht="15" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:31" ht="16" x14ac:dyDescent="0.2">
       <c r="C30" s="11">
         <v>2017</v>
       </c>
@@ -13366,7 +14379,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="31" spans="3:31" ht="15" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:31" ht="16" x14ac:dyDescent="0.2">
       <c r="I31">
         <f>1-I30</f>
         <v>0.71799999999999997</v>
@@ -13426,7 +14439,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="N32" s="13">
         <f t="shared" ref="N32" si="0">1-N30/N31</f>
         <v>0.29819619738909053</v>
@@ -13492,7 +14505,7 @@
         <v>0.29090909090909089</v>
       </c>
     </row>
-    <row r="33" spans="14:29" x14ac:dyDescent="0.35">
+    <row r="33" spans="14:29" x14ac:dyDescent="0.2">
       <c r="N33">
         <f>1-D30/N30</f>
         <v>0.21588453226304416</v>
@@ -13520,7 +14533,7 @@
         <v>0.53600000000000003</v>
       </c>
     </row>
-    <row r="34" spans="14:29" x14ac:dyDescent="0.35">
+    <row r="34" spans="14:29" x14ac:dyDescent="0.2">
       <c r="S34">
         <f>1-S31</f>
         <v>0.49399999999999999</v>
@@ -13538,7 +14551,7 @@
         <v>0.53600000000000003</v>
       </c>
     </row>
-    <row r="35" spans="14:29" x14ac:dyDescent="0.35">
+    <row r="35" spans="14:29" x14ac:dyDescent="0.2">
       <c r="AC35">
         <f>1-AC30</f>
         <v>0.65900000000000003</v>
@@ -13557,12 +14570,12 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>19</v>
       </c>
@@ -13573,7 +14586,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
@@ -13599,7 +14612,7 @@
         <v>107241.59999999999</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="17" t="s">
         <v>18</v>
       </c>
@@ -13616,7 +14629,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="17">
         <v>10</v>
       </c>
@@ -13642,7 +14655,7 @@
         <v>71828.94720000001</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="17">
         <v>20</v>
       </c>
@@ -13668,7 +14681,7 @@
         <v>83985.379199999996</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="17">
         <v>30</v>
       </c>
@@ -13694,7 +14707,7 @@
         <v>92751.033599999995</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="17">
         <v>40</v>
       </c>
@@ -13720,7 +14733,7 @@
         <v>100240.95359999999</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
         <v>50</v>
       </c>
